--- a/Dataset/aggregated_weather.xlsx
+++ b/Dataset/aggregated_weather.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lowchinboon/FIT 3179/Data_Visualisation_2/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8367FE59-6786-0240-9036-928B5C63201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B86D22-5EF8-F041-8ACD-76962DB37315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="820" windowWidth="36900" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="1260" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - aggregated_weather" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1 - aggregated_weather'!$Q$1:$Q$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1 - aggregated_weather'!$A$1:$A$187</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -2159,13 +2159,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV187"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2279,7 +2279,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>36</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>43</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>47</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>51</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>52</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>54</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>55</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>56</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>57</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>59</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>60</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>62</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>64</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>65</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>66</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>68</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>69</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>70</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>71</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>72</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>73</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>74</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>75</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>76</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>77</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>78</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>79</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>80</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>81</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>82</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>83</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>84</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>85</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>86</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>88</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>89</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>90</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>91</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>92</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>93</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>94</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>95</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>96</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>97</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>98</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>99</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>100</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>101</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>102</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>103</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>104</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>105</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>106</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>107</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>108</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>109</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>110</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>111</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>113</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>115</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>116</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>117</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>118</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>119</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>120</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>121</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>122</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>123</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>124</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>125</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>126</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>127</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>128</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>129</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>130</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>131</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>132</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>133</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>134</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>135</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>136</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>137</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
         <v>138</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>139</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
         <v>140</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>141</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
         <v>142</v>
       </c>
@@ -11825,7 +11825,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>143</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
         <v>144</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
         <v>145</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
         <v>146</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
         <v>147</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="118" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
         <v>148</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
         <v>149</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
         <v>150</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="121" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
         <v>151</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
         <v>152</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
         <v>153</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
         <v>154</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
         <v>155</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="126" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
         <v>156</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
         <v>157</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
         <v>158</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="129" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
         <v>159</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="130" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
         <v>160</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="131" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
         <v>161</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
         <v>162</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
         <v>163</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="134" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
         <v>164</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
         <v>165</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="136" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
         <v>166</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="137" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
         <v>166</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="138" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
         <v>167</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="139" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="140" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
         <v>169</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="141" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
         <v>170</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="142" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
         <v>171</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="143" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
         <v>172</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
         <v>173</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="145" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="7" t="s">
         <v>174</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
         <v>175</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
         <v>176</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
         <v>177</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="149" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
         <v>178</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="150" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
         <v>179</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="151" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
         <v>180</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="152" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
         <v>181</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="153" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="7" t="s">
         <v>182</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="154" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
         <v>183</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="155" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
         <v>184</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
         <v>185</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="157" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
         <v>186</v>
       </c>
@@ -15695,7 +15695,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
         <v>187</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
         <v>188</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="160" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="7" t="s">
         <v>189</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="161" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
         <v>191</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="163" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="7" t="s">
         <v>192</v>
       </c>
@@ -16211,7 +16211,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
         <v>193</v>
       </c>
@@ -16297,7 +16297,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="165" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
         <v>194</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="166" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
         <v>195</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="167" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
         <v>196</v>
       </c>
@@ -16555,7 +16555,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="168" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
         <v>197</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="169" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="7" t="s">
         <v>198</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="170" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
         <v>199</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="171" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
         <v>200</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
         <v>201</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="7" t="s">
         <v>202</v>
       </c>
@@ -17071,7 +17071,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="174" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
         <v>203</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="175" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
         <v>204</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="176" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
         <v>205</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="177" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
         <v>206</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="179" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
         <v>208</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="180" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
         <v>209</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="7" t="s">
         <v>210</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="182" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
         <v>211</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="183" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
         <v>212</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="184" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
         <v>213</v>
       </c>
@@ -18017,7 +18017,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="185" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
         <v>214</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="186" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
         <v>215</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="187" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:28" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
         <v>216</v>
       </c>
@@ -18276,7 +18276,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="Q1:Q188" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A187" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="United States of America"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
